--- a/image/auditevent.xlsx
+++ b/image/auditevent.xlsx
@@ -1547,47 +1547,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.4609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.4140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.73828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="73.05078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="73.9296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.4453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="156.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="48.63671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.94921875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="38.72265625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="155.37890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.38671875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="34.4140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/auditevent.xlsx
+++ b/image/auditevent.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="450">
   <si>
     <t>Path</t>
   </si>
@@ -180,7 +180,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -522,10 +522,6 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -1547,47 +1543,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.73828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.4140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="73.9296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.4453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="73.05078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.38671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="156.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="48.63671875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.94921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="38.72265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3497,13 +3493,13 @@
         <v>54</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3572,10 +3568,10 @@
         <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>119</v>
@@ -3589,7 +3585,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3612,19 +3608,19 @@
         <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3652,11 +3648,11 @@
         <v>113</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3673,7 +3669,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3688,31 +3684,31 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3731,19 +3727,19 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3792,7 +3788,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>53</v>
@@ -3804,30 +3800,30 @@
         <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3850,13 +3846,13 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3907,25 +3903,25 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3942,7 +3938,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3971,7 +3967,7 @@
         <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>101</v>
@@ -4024,7 +4020,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4042,7 +4038,7 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -4059,11 +4055,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4085,10 +4081,10 @@
         <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>101</v>
@@ -4143,7 +4139,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4178,7 +4174,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4201,16 +4197,16 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4239,63 +4235,63 @@
         <v>113</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AM23" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4318,19 +4314,19 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -4355,14 +4351,14 @@
         <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4379,7 +4375,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4397,28 +4393,28 @@
         <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4437,19 +4433,19 @@
         <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4498,7 +4494,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4513,27 +4509,27 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AM25" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4556,17 +4552,17 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4615,7 +4611,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4633,16 +4629,16 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="AM26" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>42</v>
@@ -4650,7 +4646,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4673,17 +4669,17 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4732,7 +4728,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4750,16 +4746,16 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="AM27" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>42</v>
@@ -4767,7 +4763,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4790,19 +4786,19 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4851,7 +4847,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>53</v>
@@ -4869,13 +4865,13 @@
         <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="AM28" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>42</v>
@@ -4886,7 +4882,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4909,13 +4905,13 @@
         <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4966,7 +4962,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4981,27 +4977,27 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5027,16 +5023,16 @@
         <v>66</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -5085,7 +5081,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5103,24 +5099,24 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5146,14 +5142,14 @@
         <v>109</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -5181,52 +5177,52 @@
         <v>113</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>42</v>
@@ -5237,7 +5233,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5260,13 +5256,13 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5317,7 +5313,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5329,19 +5325,19 @@
         <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>42</v>
@@ -5352,7 +5348,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5375,13 +5371,13 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5432,25 +5428,25 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -5467,7 +5463,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5496,7 +5492,7 @@
         <v>99</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>101</v>
@@ -5549,7 +5545,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5567,7 +5563,7 @@
         <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5584,11 +5580,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5610,10 +5606,10 @@
         <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>101</v>
@@ -5668,7 +5664,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5703,7 +5699,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5726,19 +5722,19 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5787,7 +5783,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5805,16 +5801,16 @@
         <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>42</v>
@@ -5822,7 +5818,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5848,14 +5844,14 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5883,52 +5879,52 @@
         <v>132</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>42</v>
@@ -5939,7 +5935,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5962,19 +5958,19 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="N38" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -6002,11 +5998,11 @@
         <v>113</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
       </c>
@@ -6023,7 +6019,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6041,16 +6037,16 @@
         <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>42</v>
@@ -6058,7 +6054,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6081,19 +6077,19 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -6142,7 +6138,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>53</v>
@@ -6154,19 +6150,19 @@
         <v>42</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>42</v>
@@ -6177,7 +6173,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6200,13 +6196,13 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6257,25 +6253,25 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -6292,7 +6288,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6321,7 +6317,7 @@
         <v>99</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>101</v>
@@ -6374,7 +6370,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6392,7 +6388,7 @@
         <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -6409,11 +6405,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6435,10 +6431,10 @@
         <v>98</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>101</v>
@@ -6493,7 +6489,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6528,7 +6524,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6551,17 +6547,17 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6610,7 +6606,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6628,13 +6624,13 @@
         <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="AM43" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>42</v>
@@ -6645,11 +6641,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6668,17 +6664,17 @@
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6727,7 +6723,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>53</v>
@@ -6745,13 +6741,13 @@
         <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>42</v>
@@ -6762,7 +6758,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6788,14 +6784,14 @@
         <v>109</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6823,11 +6819,11 @@
         <v>113</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6844,7 +6840,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6862,13 +6858,13 @@
         <v>42</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AM45" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>42</v>
@@ -6879,11 +6875,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6902,19 +6898,19 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6963,7 +6959,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6975,30 +6971,30 @@
         <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>119</v>
       </c>
       <c r="AN46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7021,13 +7017,13 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7078,25 +7074,25 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -7113,7 +7109,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7142,7 +7138,7 @@
         <v>99</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>101</v>
@@ -7195,7 +7191,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7213,7 +7209,7 @@
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -7230,11 +7226,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7256,10 +7252,10 @@
         <v>98</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>101</v>
@@ -7314,7 +7310,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7349,7 +7345,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7372,13 +7368,13 @@
         <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7429,7 +7425,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7447,10 +7443,10 @@
         <v>42</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>119</v>
@@ -7459,12 +7455,12 @@
         <v>42</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7490,16 +7486,16 @@
         <v>109</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -7527,63 +7523,63 @@
         <v>113</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>119</v>
       </c>
       <c r="AN51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7609,14 +7605,14 @@
         <v>109</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7644,55 +7640,55 @@
         <v>113</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Y52" t="s" s="2">
+      <c r="Z52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>42</v>
@@ -7700,7 +7696,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7726,16 +7722,16 @@
         <v>109</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7763,63 +7759,63 @@
         <v>113</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>398</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7845,16 +7841,16 @@
         <v>109</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7882,11 +7878,11 @@
         <v>113</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7903,7 +7899,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7921,13 +7917,13 @@
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AM54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>42</v>
@@ -7938,7 +7934,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7961,19 +7957,19 @@
         <v>54</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -8022,7 +8018,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8031,25 +8027,25 @@
         <v>53</v>
       </c>
       <c r="AH55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AI55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>42</v>
@@ -8057,7 +8053,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8080,17 +8076,17 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -8139,7 +8135,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8157,13 +8153,13 @@
         <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="AM56" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>42</v>
@@ -8174,7 +8170,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8197,19 +8193,19 @@
         <v>54</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -8258,7 +8254,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8267,7 +8263,7 @@
         <v>53</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>42</v>
@@ -8276,13 +8272,13 @@
         <v>42</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AM57" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>42</v>
@@ -8293,7 +8289,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8316,17 +8312,17 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -8375,7 +8371,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8387,19 +8383,19 @@
         <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="AM58" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>42</v>
@@ -8410,7 +8406,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8433,13 +8429,13 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8490,25 +8486,25 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -8525,7 +8521,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8554,7 +8550,7 @@
         <v>99</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>101</v>
@@ -8607,7 +8603,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8625,7 +8621,7 @@
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -8642,11 +8638,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8668,10 +8664,10 @@
         <v>98</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>101</v>
@@ -8726,7 +8722,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8761,7 +8757,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8784,13 +8780,13 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8841,7 +8837,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>53</v>
@@ -8859,13 +8855,13 @@
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>42</v>
@@ -8876,7 +8872,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8899,19 +8895,19 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8960,7 +8956,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>53</v>
@@ -8978,13 +8974,13 @@
         <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="AM63" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>42</v>
